--- a/DRE/DocsTrabajo/IPT_ACRM_JerarquiaTerminologica_150422.xlsx
+++ b/DRE/DocsTrabajo/IPT_ACRM_JerarquiaTerminologica_150422.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\DocsTrabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Jerarquía Terminológica</t>
   </si>
@@ -44,13 +44,19 @@
     <t>Término principal</t>
   </si>
   <si>
-    <t>Término alternativo</t>
-  </si>
-  <si>
     <t>Nivel</t>
   </si>
   <si>
     <t>Unidad productiva</t>
+  </si>
+  <si>
+    <t>Business Unit</t>
+  </si>
+  <si>
+    <t>Término alternativo 1</t>
+  </si>
+  <si>
+    <t>Término alternativo 2</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,11 +123,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -130,7 +156,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,37 +442,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -453,8 +486,9 @@
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -462,10 +496,11 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -474,11 +509,14 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
